--- a/data/ED/program_url_pair.xlsx
+++ b/data/ED/program_url_pair.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=416</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=416</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=478</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=478</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=913</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=913</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=910</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=910</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=419</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=419</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -539,7 +539,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1049</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1049</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=960</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=960</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=634</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=634</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=417</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=417</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=992</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=992</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=622</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=622</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=139</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=139</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1004</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1004</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=890</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=890</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=917</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=917</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=986</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=986</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=763</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=763</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=238</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=238</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=954</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=954</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1032</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1032</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=280</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=280</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=964</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=964</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=963</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=963</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=129</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=129</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=34</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=34</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=636</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=636</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=746</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=746</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1096</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1096</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=420</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=420</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=107</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=107</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1097</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1097</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=756</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=756</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=57</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=57</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=856</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=856</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=646</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=646</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=2</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=676</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=676</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=267</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=267</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1076</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1076</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=929</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=929</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1073</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1073</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=412</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=412</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=899</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=899</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1091</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1091</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1090</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1090</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=141</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=141</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=140</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=140</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=671</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=671</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1000</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1000</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=911</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=911</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=246</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=246</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=820</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=820</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=891</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=891</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=860</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=860</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=136</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=136</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=809</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=809</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=108</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=108</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=161</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=161</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=684</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=684</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1045</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1045</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=173</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=173</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=301</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=301</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1095</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1095</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=935</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=935</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=894</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=894</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=110</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=110</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=786</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=786</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=747</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=747</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=748</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=748</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=776</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=776</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=787</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=787</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=130</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=130</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=520</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=520</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=131</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=131</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1058</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1058</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=175</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=175</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=772</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=772</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=162</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=162</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=975</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=975</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=971</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=971</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=421</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=421</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1092</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1092</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1093</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1093</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1081</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1081</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=902</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=902</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1099</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1099</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1041</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1041</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=906</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=906</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1059</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1059</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1060</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1060</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=37</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=37</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=951</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=951</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=803</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=803</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=821</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=821</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=281</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=281</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1053</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1053</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1040</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1040</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=106</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=106</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=893</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=893</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=936</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=936</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=950</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=950</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=3</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=3</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=874</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=874</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=800</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=800</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=29</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=29</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1080</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1080</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=272</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=272</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=98</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=98</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1061</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1061</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1062</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1062</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=937</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=937</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=669</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=669</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=967</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=967</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=934</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=934</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=282</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=282</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=177</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=177</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=426</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=426</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=897</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=897</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=30</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=30</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=395</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=395</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=31</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=31</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=32</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=32</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1042</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1042</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=844</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=844</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=239</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=239</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=39</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=39</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=163</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=163</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=907</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=907</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=283</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=283</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=764</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=764</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=810</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=810</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=870</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=870</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=733</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=733</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=179</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=179</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=658</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=658</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=928</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=928</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=966</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=966</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=640</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=640</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1082</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1082</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=955</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=955</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=668</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=668</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1063</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1063</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3055,7 +3055,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1064</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1064</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=697</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=697</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=944</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=944</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=74</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=74</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=923</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=923</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=621</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=621</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=761</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=761</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=642</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=642</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=798</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=798</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=811</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=811</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=959</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=959</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=413</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=413</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=793</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=793</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=384</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=384</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=780</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=780</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=702</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=702</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=991</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=991</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1037</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1037</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1044</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1044</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1009</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1009</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=735</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=735</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=187</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=187</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=997</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=997</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=871</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=871</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=996</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=996</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=616</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=616</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=816</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=816</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=41</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=41</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=648</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=648</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1054</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1054</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=765</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=765</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=42</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=42</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=755</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=755</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=845</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=845</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=736</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=736</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=815</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=815</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=378</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=378</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=502</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=502</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=503</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=503</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=164</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=164</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=374</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=374</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=641</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=641</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=737</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=737</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=987</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=987</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=692</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=692</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=303</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=303</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=241</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=241</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=788</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=788</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=859</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=859</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=825</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=825</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=681</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=681</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=945</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=945</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=686</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=686</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=880</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=880</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=166</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=166</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=806</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=806</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=687</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=687</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=989</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=989</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=181</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=181</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=973</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=973</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=920</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=920</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=749</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=749</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1006</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1006</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=285</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=285</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=794</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=794</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -4244,7 +4244,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=167</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=167</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=767</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=767</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=782</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=782</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=976</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=976</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=994</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=994</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=908</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=908</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=277</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=277</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=769</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=769</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4390,7 +4390,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=872</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=872</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=638</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=638</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=639</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=639</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=448</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=448</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1003</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1003</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=817</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=817</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=299</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=299</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=867</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=867</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=505</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=505</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=450</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=450</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=149</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=149</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=44</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=44</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=654</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=654</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=841</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=841</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=655</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=655</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=424</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=424</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=47</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=47</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1065</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1065</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1066</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1066</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1077</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1077</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=234</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=234</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1074</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1074</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1008</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1008</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=814</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=814</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=116</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=116</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=499</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=499</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=915</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=915</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=498</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=498</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=227</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=227</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4918,7 +4918,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=115</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=115</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=382</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=382</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -4954,7 +4954,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=228</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=228</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=667</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=667</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=946</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=946</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=962</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=962</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -5029,7 +5029,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1100</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1100</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=117</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=117</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=965</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=965</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -5084,7 +5084,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=286</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=286</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=941</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=941</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1072</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1072</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=824</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=824</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1086</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1086</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1087</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1087</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=775</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=775</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=862</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=862</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=121</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=121</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=123</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=123</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -5267,7 +5267,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=675</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=675</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -5285,7 +5285,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=229</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=229</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1035</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1035</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=931</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=931</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1055</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1055</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1056</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1056</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=883</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=883</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=942</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=942</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=886</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=886</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=203</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=203</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=306</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=306</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=6</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=6</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=888</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=888</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5503,7 +5503,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1005</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1005</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=611</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=611</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=789</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=789</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=653</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=653</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=796</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=796</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -5594,7 +5594,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=790</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=790</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=819</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=819</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=615</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=615</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=882</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=882</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1067</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1067</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1068</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1068</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=20</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=20</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -5723,7 +5723,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1075</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1075</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=310</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=310</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -5760,7 +5760,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=878</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=878</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -5778,7 +5778,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1057</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1057</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=313</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=313</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=314</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=314</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=643</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=643</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=781</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=781</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5868,7 +5868,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=51</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=51</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -5886,7 +5886,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=290</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=290</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=828</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=828</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=660</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=660</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=916</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=916</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=939</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=939</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=127</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=127</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5996,7 +5996,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=404</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=404</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1098</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1098</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -6033,7 +6033,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=22</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=22</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1088</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1088</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -6070,7 +6070,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1089</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1089</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=857</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=857</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=649</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=649</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=128</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=128</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1094</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1094</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=61</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=61</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -6178,7 +6178,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=818</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=818</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=938</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=938</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=251</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=251</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=791</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=791</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -6251,7 +6251,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=822</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=822</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=792</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=792</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=808</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=808</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=914</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=914</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -6326,7 +6326,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=58</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=58</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -6344,7 +6344,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1028</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1028</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1048</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1048</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -6380,7 +6380,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=319</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=319</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=957</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=957</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=509</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=509</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=510</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=510</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6452,7 +6452,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=990</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=990</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -6470,7 +6470,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=511</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=511</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -6488,7 +6488,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=53</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=53</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=864</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=864</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6524,7 +6524,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=978</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=978</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=54</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=54</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=375</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=375</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6578,7 +6578,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=868</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=868</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=751</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=751</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=189</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=189</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6632,7 +6632,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=95</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=95</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -6650,7 +6650,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=873</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=873</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1079</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1079</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1078</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1078</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1038</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1038</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -6722,7 +6722,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=244</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=244</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1083</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1083</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=237</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=237</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -6776,7 +6776,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=205</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=205</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=208</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=208</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6812,7 +6812,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=7</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=7</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6830,7 +6830,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=248</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=248</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1070</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1070</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=16</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=16</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6884,7 +6884,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=209</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=209</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=249</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=249</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1013</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1013</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6938,7 +6938,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=156</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=156</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6956,7 +6956,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=865</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=865</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -6974,7 +6974,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=397</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=397</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=235</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=235</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -7010,7 +7010,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=861</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=861</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=826</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=826</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=921</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=921</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=252</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=252</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -7082,7 +7082,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=190</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=190</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -7100,7 +7100,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=330</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=330</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -7118,7 +7118,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=383</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=383</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=630</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=630</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=881</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=881</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -7172,7 +7172,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=651</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=651</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -7190,7 +7190,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=823</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=823</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1027</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1027</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=211</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=211</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -7244,7 +7244,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=753</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=753</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=24</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=24</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=889</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=889</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -7298,7 +7298,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=833</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=833</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -7316,7 +7316,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=979</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=979</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=142</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=142</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -7352,7 +7352,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=157</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=157</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -7370,7 +7370,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=278</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=278</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -7388,7 +7388,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1046</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1046</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1047</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1047</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=328</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=328</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -7442,7 +7442,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=25</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=25</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -7460,7 +7460,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=947</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=947</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -7478,7 +7478,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=605</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=605</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=254</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=254</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1014</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1014</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -7532,7 +7532,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=855</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=855</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7550,7 +7550,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=863</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=863</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=62</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=62</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7586,7 +7586,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=632</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=632</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -7604,7 +7604,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=8</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=8</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -7622,7 +7622,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=255</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=255</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7640,7 +7640,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1029</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1029</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=998</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=998</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -7676,7 +7676,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=256</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=256</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1017</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1017</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=829</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=829</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -7730,7 +7730,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=851</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=851</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=830</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=830</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=838</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=838</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -7784,7 +7784,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=839</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=839</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -7802,7 +7802,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=69</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=69</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7820,7 +7820,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=512</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=512</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1001</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1001</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=84</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=84</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -7874,7 +7874,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=214</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=214</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=257</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=257</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -7910,7 +7910,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1018</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1018</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -7928,7 +7928,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=698</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=698</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -7946,7 +7946,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=398</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=398</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=952</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=952</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -7982,7 +7982,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=804</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=804</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=64</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=64</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=147</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=147</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -8036,7 +8036,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=158</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=158</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -8054,7 +8054,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=40</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=40</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -8072,7 +8072,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=55</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=55</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -8090,7 +8090,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=63</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=63</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=86</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=86</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -8126,7 +8126,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=105</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=105</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=488</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=488</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -8162,7 +8162,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=831</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=831</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -8180,7 +8180,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=399</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=399</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=195</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=195</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -8216,7 +8216,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=215</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=215</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -8234,7 +8234,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=494</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=494</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -8252,7 +8252,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=489</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=489</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -8270,7 +8270,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=492</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=492</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=491</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=491</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -8306,7 +8306,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=495</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=495</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -8324,7 +8324,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=493</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=493</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -8342,7 +8342,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=26</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=26</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -8360,7 +8360,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=27</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=27</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -8378,7 +8378,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=969</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=969</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1039</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1039</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -8414,7 +8414,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=400</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=400</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1085</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1085</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -8450,7 +8450,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=850</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=850</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -8468,7 +8468,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=259</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=259</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -8486,7 +8486,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1020</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1020</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -8504,7 +8504,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=926</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=926</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -8522,7 +8522,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=260</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=260</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -8540,7 +8540,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1021</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1021</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -8558,7 +8558,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=261</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=261</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1022</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1022</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -8594,7 +8594,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=974</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=974</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -8612,7 +8612,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1023</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1023</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -8630,7 +8630,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=758</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=758</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=168</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=168</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -8666,7 +8666,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=993</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=993</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -8684,7 +8684,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=437</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=437</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8702,7 +8702,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=293</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=293</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=486</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=486</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1084</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1084</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -8756,7 +8756,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=28</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=28</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -8774,7 +8774,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=980</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=980</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -8792,7 +8792,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=513</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=513</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -8810,7 +8810,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=953</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=953</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8828,7 +8828,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=924</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=924</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -8846,7 +8846,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=245</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=245</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=633</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=633</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1024</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1024</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -8900,7 +8900,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=10</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=10</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -8918,7 +8918,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=56</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=56</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -8936,7 +8936,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1030</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1030</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8954,7 +8954,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=918</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=918</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8972,7 +8972,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=200</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=200</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -8990,7 +8990,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=196</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=196</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=65</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=65</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=192</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=192</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -9044,7 +9044,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=138</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=138</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -9062,7 +9062,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=785</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=785</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -9080,7 +9080,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=514</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=514</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=218</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=218</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -9116,7 +9116,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=927</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=927</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -9134,7 +9134,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=193</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=193</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -9152,7 +9152,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=506</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=506</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -9170,7 +9170,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=296</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=296</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=606</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=606</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=321</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=321</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -9224,7 +9224,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=213</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=213</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -9242,7 +9242,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=919</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=919</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -9260,7 +9260,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=515</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=515</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -9278,7 +9278,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=507</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=507</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=297</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=297</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -9314,7 +9314,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=439</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=439</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -9332,7 +9332,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=12</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=12</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -9350,7 +9350,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=695</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=695</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -9368,7 +9368,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=983</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=983</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -9386,7 +9386,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=66</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=66</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=221</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=221</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -9422,7 +9422,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=204</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=204</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -9440,7 +9440,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=223</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=223</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -9458,7 +9458,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=262</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=262</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -9476,7 +9476,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1025</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1025</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=264</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=264</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -9512,7 +9512,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1026</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1026</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -9530,7 +9530,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=925</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=925</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -9548,7 +9548,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=322</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=322</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -9566,7 +9566,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=265</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=265</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -9584,7 +9584,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=159</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=159</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -9602,7 +9602,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=866</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=866</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -9620,7 +9620,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=970</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=970</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -9638,7 +9638,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=984</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=984</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=324</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=324</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -9674,7 +9674,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=323</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=323</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -9692,7 +9692,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=325</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=325</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -9710,7 +9710,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=312</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=312</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -9728,7 +9728,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=326</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=326</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -9746,7 +9746,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=408</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=408</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -9764,7 +9764,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=327</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=327</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -9782,7 +9782,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=258</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=258</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1019</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1019</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -9818,7 +9818,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=968</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=968</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -9836,7 +9836,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1051</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1051</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -9854,7 +9854,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=516</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=516</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -9872,7 +9872,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=11</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=11</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -9890,7 +9890,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=835</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=835</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -9908,7 +9908,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=67</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=67</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -9926,7 +9926,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1033</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1033</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -9944,7 +9944,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=266</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=266</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -9962,7 +9962,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=956</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=956</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -9980,7 +9980,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=981</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=981</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -9998,7 +9998,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=982</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=982</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1007</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1007</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -10034,7 +10034,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=68</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=68</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">

--- a/data/ED/program_url_pair.xlsx
+++ b/data/ED/program_url_pair.xlsx
@@ -2413,7 +2413,7 @@
       <c r="A110" t="inlineStr">
         <is>
           <t>education  
-    msc</t>
+    msc, pgcert, pgdip</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4185,7 +4185,7 @@
       <c r="A207" t="inlineStr">
         <is>
           <t>language and intercultural communication  
-    msc, pgcert, pgdip</t>
+    msc, pgdip (icl), pgcert (icl), pgdip</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -6119,7 +6119,7 @@
       <c r="A313" t="inlineStr">
         <is>
           <t>teaching english to speakers of other languages (tesol)  
-    msc, pgdip, pgcert</t>
+    msc, pgdip (icl), pgcert (icl), pgdip</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -7095,7 +7095,7 @@
       <c r="A367" t="inlineStr">
         <is>
           <t>counselling studies  
-    phd, mscr</t>
+    phd</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -9039,7 +9039,7 @@
       <c r="A475" t="inlineStr">
         <is>
           <t>nursing studies  
-    phd, mphil, mscr</t>
+    phd, mscr</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">

--- a/data/ED/program_url_pair.xlsx
+++ b/data/ED/program_url_pair.xlsx
@@ -1938,7 +1938,7 @@
       <c r="A84" t="inlineStr">
         <is>
           <t>data and artificial intelligence ethics  
-    subject to approval</t>
+    msc, pgdip, pgcert</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1957,7 +1957,7 @@
         <is>
           <t>online
     data and artificial intelligence ethics (online learning)   
-    subject to approval</t>
+    msc, pgdip, pgcert</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
